--- a/workspaceOptimisationEclipse/PouleConstructor/Matrice distance.xlsx
+++ b/workspaceOptimisationEclipse/PouleConstructor/Matrice distance.xlsx
@@ -63,9 +63,6 @@
     <t>Amneville</t>
   </si>
   <si>
-    <t>Francais_Volants</t>
-  </si>
-  <si>
     <t>Asnieres</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Wasquehal</t>
+  </si>
+  <si>
+    <t>Francais Volants</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,46 +489,46 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -769,7 +769,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>673</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>686</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>449</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>344</v>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>417</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>604</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>665</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>291</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>408</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>517</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>504</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>668</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>973</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>901</v>
